--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3938366666666667</v>
+        <v>1.176261666666667</v>
       </c>
       <c r="H2">
-        <v>1.18151</v>
+        <v>3.528785</v>
       </c>
       <c r="I2">
-        <v>0.001145820880980984</v>
+        <v>0.003383077204500727</v>
       </c>
       <c r="J2">
-        <v>0.001145820880980984</v>
+        <v>0.003383077204500727</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>94.1600189637189</v>
+        <v>28.90845836896334</v>
       </c>
       <c r="R2">
-        <v>847.4401706734701</v>
+        <v>260.17612532067</v>
       </c>
       <c r="S2">
-        <v>0.0004682941739243324</v>
+        <v>0.0002555497711342995</v>
       </c>
       <c r="T2">
-        <v>0.0004682941739243326</v>
+        <v>0.0002555497711342994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3938366666666667</v>
+        <v>1.176261666666667</v>
       </c>
       <c r="H3">
-        <v>1.18151</v>
+        <v>3.528785</v>
       </c>
       <c r="I3">
-        <v>0.001145820880980984</v>
+        <v>0.003383077204500727</v>
       </c>
       <c r="J3">
-        <v>0.001145820880980984</v>
+        <v>0.003383077204500727</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>46.09908187462111</v>
+        <v>137.6829215435628</v>
       </c>
       <c r="R3">
-        <v>414.89173687159</v>
+        <v>1239.146293892065</v>
       </c>
       <c r="S3">
-        <v>0.0002292685547723177</v>
+        <v>0.001217112259688475</v>
       </c>
       <c r="T3">
-        <v>0.0002292685547723178</v>
+        <v>0.001217112259688475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3938366666666667</v>
+        <v>1.176261666666667</v>
       </c>
       <c r="H4">
-        <v>1.18151</v>
+        <v>3.528785</v>
       </c>
       <c r="I4">
-        <v>0.001145820880980984</v>
+        <v>0.003383077204500727</v>
       </c>
       <c r="J4">
-        <v>0.001145820880980984</v>
+        <v>0.003383077204500727</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>22.72274833356</v>
+        <v>65.50348286199612</v>
       </c>
       <c r="R4">
-        <v>204.50473500204</v>
+        <v>589.5313457579651</v>
       </c>
       <c r="S4">
-        <v>0.0001130090114388685</v>
+        <v>0.0005790485206867464</v>
       </c>
       <c r="T4">
-        <v>0.0001130090114388685</v>
+        <v>0.0005790485206867464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3938366666666667</v>
+        <v>1.176261666666667</v>
       </c>
       <c r="H5">
-        <v>1.18151</v>
+        <v>3.528785</v>
       </c>
       <c r="I5">
-        <v>0.001145820880980984</v>
+        <v>0.003383077204500727</v>
       </c>
       <c r="J5">
-        <v>0.001145820880980984</v>
+        <v>0.003383077204500727</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>67.40862307776665</v>
+        <v>150.6076772872389</v>
       </c>
       <c r="R5">
-        <v>606.6776076998999</v>
+        <v>1355.46909558515</v>
       </c>
       <c r="S5">
-        <v>0.0003352491408454648</v>
+        <v>0.001331366652991206</v>
       </c>
       <c r="T5">
-        <v>0.0003352491408454649</v>
+        <v>0.001331366652991206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1023.801208</v>
       </c>
       <c r="I6">
-        <v>0.9928758978764084</v>
+        <v>0.9815272193474828</v>
       </c>
       <c r="J6">
-        <v>0.9928758978764087</v>
+        <v>0.9815272193474829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>81591.47291208565</v>
+        <v>8387.168557892412</v>
       </c>
       <c r="R6">
-        <v>734323.2562087708</v>
+        <v>75484.5170210317</v>
       </c>
       <c r="S6">
-        <v>0.4057859357627897</v>
+        <v>0.07414227967740152</v>
       </c>
       <c r="T6">
-        <v>0.4057859357627899</v>
+        <v>0.07414227967740152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1023.801208</v>
       </c>
       <c r="I7">
-        <v>0.9928758978764084</v>
+        <v>0.9815272193474828</v>
       </c>
       <c r="J7">
-        <v>0.9928758978764087</v>
+        <v>0.9815272193474829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
-        <v>39945.74376088903</v>
+        <v>39945.74376088904</v>
       </c>
       <c r="R7">
-        <v>359511.6938480012</v>
+        <v>359511.6938480013</v>
       </c>
       <c r="S7">
-        <v>0.198665625625101</v>
+        <v>0.3531189918741636</v>
       </c>
       <c r="T7">
-        <v>0.198665625625101</v>
+        <v>0.3531189918741637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1023.801208</v>
       </c>
       <c r="I8">
-        <v>0.9928758978764084</v>
+        <v>0.9815272193474828</v>
       </c>
       <c r="J8">
-        <v>0.9928758978764087</v>
+        <v>0.9815272193474829</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>19689.69978500285</v>
+        <v>19004.42925321858</v>
       </c>
       <c r="R8">
-        <v>177207.2980650257</v>
+        <v>171039.8632789672</v>
       </c>
       <c r="S8">
-        <v>0.09792448851554315</v>
+        <v>0.1679984966411113</v>
       </c>
       <c r="T8">
-        <v>0.09792448851554318</v>
+        <v>0.1679984966411113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1023.801208</v>
       </c>
       <c r="I9">
-        <v>0.9928758978764084</v>
+        <v>0.9815272193474828</v>
       </c>
       <c r="J9">
-        <v>0.9928758978764087</v>
+        <v>0.9815272193474829</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>58410.87230462221</v>
+        <v>43695.5841573656</v>
       </c>
       <c r="R9">
-        <v>525697.8507415999</v>
+        <v>393260.2574162903</v>
       </c>
       <c r="S9">
-        <v>0.2904998479729744</v>
+        <v>0.3862674511548063</v>
       </c>
       <c r="T9">
-        <v>0.2904998479729745</v>
+        <v>0.3862674511548064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.564226333333333</v>
+        <v>2.611920666666667</v>
       </c>
       <c r="H10">
-        <v>4.692678999999999</v>
+        <v>7.835762</v>
       </c>
       <c r="I10">
-        <v>0.004550930238373742</v>
+        <v>0.007512213921248538</v>
       </c>
       <c r="J10">
-        <v>0.004550930238373743</v>
+        <v>0.007512213921248538</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>373.9813828326847</v>
+        <v>64.19200930804934</v>
       </c>
       <c r="R10">
-        <v>3365.832445494163</v>
+        <v>577.7280837724441</v>
       </c>
       <c r="S10">
-        <v>0.001859953987521952</v>
+        <v>0.0005674551398747276</v>
       </c>
       <c r="T10">
-        <v>0.001859953987521953</v>
+        <v>0.0005674551398747275</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.564226333333333</v>
+        <v>2.611920666666667</v>
       </c>
       <c r="H11">
-        <v>4.692678999999999</v>
+        <v>7.835762</v>
       </c>
       <c r="I11">
-        <v>0.004550930238373742</v>
+        <v>0.007512213921248538</v>
       </c>
       <c r="J11">
-        <v>0.004550930238373743</v>
+        <v>0.007512213921248538</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>183.0946783627012</v>
+        <v>305.7286303019398</v>
       </c>
       <c r="R11">
-        <v>1647.85210526431</v>
+        <v>2751.557672717458</v>
       </c>
       <c r="S11">
-        <v>0.0009106006147560366</v>
+        <v>0.00270263050715787</v>
       </c>
       <c r="T11">
-        <v>0.0009106006147560369</v>
+        <v>0.00270263050715787</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.564226333333333</v>
+        <v>2.611920666666667</v>
       </c>
       <c r="H12">
-        <v>4.692678999999999</v>
+        <v>7.835762</v>
       </c>
       <c r="I12">
-        <v>0.004550930238373742</v>
+        <v>0.007512213921248538</v>
       </c>
       <c r="J12">
-        <v>0.004550930238373743</v>
+        <v>0.007512213921248538</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>90.24939605012398</v>
+        <v>145.4522454265931</v>
       </c>
       <c r="R12">
-        <v>812.2445644511158</v>
+        <v>1309.070208839338</v>
       </c>
       <c r="S12">
-        <v>0.0004488451344380816</v>
+        <v>0.001285792813830659</v>
       </c>
       <c r="T12">
-        <v>0.0004488451344380818</v>
+        <v>0.001285792813830659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.564226333333333</v>
+        <v>2.611920666666667</v>
       </c>
       <c r="H13">
-        <v>4.692678999999999</v>
+        <v>7.835762</v>
       </c>
       <c r="I13">
-        <v>0.004550930238373742</v>
+        <v>0.007512213921248538</v>
       </c>
       <c r="J13">
-        <v>0.004550930238373743</v>
+        <v>0.007512213921248538</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>267.7311490685232</v>
+        <v>334.4283980451089</v>
       </c>
       <c r="R13">
-        <v>2409.580341616709</v>
+        <v>3009.85558240598</v>
       </c>
       <c r="S13">
-        <v>0.001331530501657671</v>
+        <v>0.002956335460385282</v>
       </c>
       <c r="T13">
-        <v>0.001331530501657671</v>
+        <v>0.002956335460385282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.490603</v>
+        <v>2.634616333333333</v>
       </c>
       <c r="H14">
-        <v>1.471809</v>
+        <v>7.903849</v>
       </c>
       <c r="I14">
-        <v>0.001427351004236731</v>
+        <v>0.007577489526767955</v>
       </c>
       <c r="J14">
-        <v>0.001427351004236732</v>
+        <v>0.007577489526767956</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>117.2952944545303</v>
+        <v>64.74979058544866</v>
       </c>
       <c r="R14">
-        <v>1055.657650090773</v>
+        <v>582.7481152690381</v>
       </c>
       <c r="S14">
-        <v>0.0005833548423876206</v>
+        <v>0.0005723859070558454</v>
       </c>
       <c r="T14">
-        <v>0.0005833548423876209</v>
+        <v>0.0005723859070558454</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.490603</v>
+        <v>2.634616333333333</v>
       </c>
       <c r="H15">
-        <v>1.471809</v>
+        <v>7.903849</v>
       </c>
       <c r="I15">
-        <v>0.001427351004236731</v>
+        <v>0.007577489526767955</v>
       </c>
       <c r="J15">
-        <v>0.001427351004236732</v>
+        <v>0.007577489526767956</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>57.42570405227566</v>
+        <v>308.3851869012046</v>
       </c>
       <c r="R15">
-        <v>516.8313364704809</v>
+        <v>2775.466682110841</v>
       </c>
       <c r="S15">
-        <v>0.0002856002254156885</v>
+        <v>0.002726114375522026</v>
       </c>
       <c r="T15">
-        <v>0.0002856002254156886</v>
+        <v>0.002726114375522026</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.490603</v>
+        <v>2.634616333333333</v>
       </c>
       <c r="H16">
-        <v>1.471809</v>
+        <v>7.903849</v>
       </c>
       <c r="I16">
-        <v>0.001427351004236731</v>
+        <v>0.007577489526767955</v>
       </c>
       <c r="J16">
-        <v>0.001427351004236732</v>
+        <v>0.007577489526767956</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>28.305765928404</v>
+        <v>146.7161183000112</v>
       </c>
       <c r="R16">
-        <v>254.751893355636</v>
+        <v>1320.445064700101</v>
       </c>
       <c r="S16">
-        <v>0.0001407755161757662</v>
+        <v>0.0012969654062748</v>
       </c>
       <c r="T16">
-        <v>0.0001407755161757663</v>
+        <v>0.0012969654062748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.490603</v>
+        <v>2.634616333333333</v>
       </c>
       <c r="H17">
-        <v>1.471809</v>
+        <v>7.903849</v>
       </c>
       <c r="I17">
-        <v>0.001427351004236731</v>
+        <v>0.007577489526767955</v>
       </c>
       <c r="J17">
-        <v>0.001427351004236732</v>
+        <v>0.007577489526767956</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>83.97103547448998</v>
+        <v>337.3343344859678</v>
       </c>
       <c r="R17">
-        <v>755.7393192704099</v>
+        <v>3036.00901037371</v>
       </c>
       <c r="S17">
-        <v>0.0004176204202576555</v>
+        <v>0.002982023837915284</v>
       </c>
       <c r="T17">
-        <v>0.0004176204202576557</v>
+        <v>0.002982023837915285</v>
       </c>
     </row>
   </sheetData>
